--- a/recipes_model.xlsx
+++ b/recipes_model.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evafeldman/Лабораторная работа №4/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF888B8-2B9F-DC40-94A1-7AF480F9AAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="17600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Модель" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t>recipe</t>
   </si>
@@ -155,13 +174,16 @@
   </si>
   <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,12 +200,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -213,24 +241,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -268,9 +305,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,9 +339,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +391,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,14 +584,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -546,8 +633,9 @@
       <c r="I1" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -566,8 +654,15 @@
       <c r="F2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J18" si="0">B2&amp;" "&amp;C2&amp;IF(G2="PK", " PRIMARY KEY", IF(G2="FK", " REFERENCES "&amp;H2&amp;"("&amp;I2&amp;")", ""))&amp;IF(AND(D2="Y", NOT(G2="PK")), " NOT NULL", "")</f>
+        <v>name varchar(100) NOT NULL</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -589,8 +684,12 @@
       <c r="G3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>id serial PRIMARY KEY</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -609,8 +708,12 @@
       <c r="F4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>minutes int NOT NULL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -638,8 +741,12 @@
       <c r="I5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>contributor_id int REFERENCES user(id) NOT NULL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -658,8 +765,12 @@
       <c r="F6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>submitted timestamp NOT NULL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -678,8 +789,12 @@
       <c r="F7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>n_steps int</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -698,8 +813,12 @@
       <c r="F8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>description text</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -718,8 +837,12 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>n_ingredients int</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -741,8 +864,12 @@
       <c r="G10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>id serial PRIMARY KEY</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -764,8 +891,12 @@
       <c r="G11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>user_id int REFERENCES () NOT NULL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -793,8 +924,12 @@
       <c r="I12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>recipe_id int REFERENCES recipe(id) NOT NULL</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -813,8 +948,12 @@
       <c r="F13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>date timestamp NOT NULL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -833,8 +972,12 @@
       <c r="F14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>rating int NOT NULL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -853,8 +996,12 @@
       <c r="F15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>review test</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -876,8 +1023,12 @@
       <c r="G16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>id serial PRIMARY KEY</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -896,8 +1047,12 @@
       <c r="F17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>login varchar(20) NOT NULL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -915,6 +1070,10 @@
       </c>
       <c r="F18" t="s">
         <v>44</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>registered timestamp NOT NULL</v>
       </c>
     </row>
   </sheetData>
